--- a/commentarii.xlsx
+++ b/commentarii.xlsx
@@ -2,8 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E5FFC8-F8BB-4609-8D7E-C155B0C5535A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837D5B33-C01C-43C0-A7A1-8796DCC2CCA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>lat</t>
   </si>
@@ -233,6 +238,12 @@
   </si>
   <si>
     <t>Aduatuca</t>
+  </si>
+  <si>
+    <t>Noviodunum (Bituriges)</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/138494</t>
   </si>
 </sst>
 </file>
@@ -560,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +751,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,101 +1011,101 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B26">
-        <v>47.082535</v>
+        <v>47.534798000000002</v>
       </c>
       <c r="C26">
-        <v>2.3978655</v>
+        <v>1.8061940000000001</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B27">
-        <v>46.828248222200003</v>
+        <v>47.082535</v>
       </c>
       <c r="C27">
-        <v>3.46142494445</v>
+        <v>2.3978655</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28">
-        <v>46.783372</v>
+        <v>46.828248222200003</v>
       </c>
       <c r="C28">
-        <v>4.8560144999999997</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>3.46142494445</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B29">
-        <v>48.854405499999999</v>
+        <v>46.783372</v>
       </c>
       <c r="C29">
-        <v>2.346168</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
+        <v>4.8560144999999997</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30">
-        <v>48.540599999999998</v>
+        <v>48.854405499999999</v>
       </c>
       <c r="C30">
-        <v>2.66</v>
+        <v>2.346168</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31">
-        <v>47.536622000000001</v>
+        <v>48.540599999999998</v>
       </c>
       <c r="C31">
-        <v>4.5038840000000002</v>
+        <v>2.66</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -1102,23 +1113,39 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32">
+        <v>47.536622000000001</v>
+      </c>
+      <c r="C32">
+        <v>4.5038840000000002</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>68</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>46.306773</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>4.8301974999999997</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>